--- a/Outputs/1. Budget/Output Files/1250000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Output Files/1250000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2260900.12197799</v>
+        <v>2258214.166429879</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11309886.53027066</v>
+        <v>10714806.98407595</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9584535.942794023</v>
+        <v>9645098.540395638</v>
       </c>
     </row>
     <row r="11">
@@ -661,52 +661,52 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="D2" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="E2" t="n">
+        <v>18.28182508062843</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.097100052852174</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="G2" t="n">
-        <v>44.46519227902342</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.46519227902342</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>44.46519227902342</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>50.48273419507654</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48273419507654</v>
+        <v>8.386866521745219</v>
       </c>
       <c r="D4" t="n">
         <v>50.48273419507654</v>
@@ -828,10 +828,10 @@
         <v>50.48273419507654</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="G4" t="n">
-        <v>8.386866521745262</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -898,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="D5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>53.79631798062264</v>
+        <v>18.28182508062843</v>
       </c>
       <c r="F5" t="n">
-        <v>53.79631798062264</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.16194852731947</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
-        <v>32.22184835001295</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>44.4651922790234</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>47.38379687733242</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>8.386866521745219</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>52.60630734092062</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>170.1331892653155</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>170.1331892653155</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>170.1331892653155</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.80371436173801</v>
+        <v>14.31762890126141</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.46744821986768</v>
+        <v>139.660530649964</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157265</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.8164375874008</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642461</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271127</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.7854795015659</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>170.1331892653155</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>170.1331892653155</v>
+        <v>196.3748373396879</v>
       </c>
       <c r="V9" t="n">
-        <v>51.0582681195035</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.8533131048898</v>
+        <v>8.86384105041699</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>170.1331892653155</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>170.1331892653155</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>170.1331892653155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>135.3135037226519</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.619672595757198</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>48.15331591778334</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>150.3341561773491</v>
       </c>
       <c r="Y19" t="n">
-        <v>107.3870054807226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>243.1373908222617</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>22.04658882052573</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>95.57362600055866</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>36.39209596079195</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.98898794535603</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F37" t="n">
-        <v>112.5284434523311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>32.81060261323905</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>26.07046444232026</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>63.8415564125923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>114.6820364666626</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="C2" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="D2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="E2" t="n">
-        <v>99.94561517409093</v>
+        <v>30.48646439055056</v>
       </c>
       <c r="F2" t="n">
-        <v>48.95295437098331</v>
+        <v>23.54096364134708</v>
       </c>
       <c r="G2" t="n">
-        <v>4.038618735606123</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="H2" t="n">
-        <v>4.038618735606123</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="I2" t="n">
-        <v>4.038618735606123</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="J2" t="n">
         <v>4.038618735606123</v>
@@ -4336,16 +4336,16 @@
         <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>103.9944324418577</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M2" t="n">
-        <v>153.9723392949834</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="N2" t="n">
-        <v>201.9309367803062</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O2" t="n">
-        <v>201.9309367803062</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="P2" t="n">
         <v>201.9309367803062</v>
@@ -4354,28 +4354,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="X2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="Y2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
     </row>
     <row r="3">
@@ -4391,10 +4391,10 @@
         <v>99.94561517409093</v>
       </c>
       <c r="D3" t="n">
-        <v>55.03127953871374</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="E3" t="n">
-        <v>4.038618735606123</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="F3" t="n">
         <v>4.038618735606123</v>
@@ -4415,16 +4415,16 @@
         <v>7.929436376304878</v>
       </c>
       <c r="L3" t="n">
-        <v>57.90734322943065</v>
+        <v>7.929436376304878</v>
       </c>
       <c r="M3" t="n">
-        <v>107.8852500825564</v>
+        <v>7.929436376304878</v>
       </c>
       <c r="N3" t="n">
-        <v>151.9530299271804</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="O3" t="n">
-        <v>151.9530299271804</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="P3" t="n">
         <v>151.9530299271804</v>
@@ -4433,16 +4433,16 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
+        <v>201.9309367803062</v>
+      </c>
+      <c r="S3" t="n">
         <v>150.9382759771985</v>
       </c>
-      <c r="S3" t="n">
-        <v>99.94561517409093</v>
-      </c>
       <c r="T3" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U3" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V3" t="n">
         <v>99.94561517409093</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9382759771985</v>
+        <v>157.016601144929</v>
       </c>
       <c r="D4" t="n">
-        <v>99.94561517409093</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="E4" t="n">
-        <v>48.95295437098331</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="F4" t="n">
-        <v>48.95295437098331</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L4" t="n">
-        <v>73.9036487032557</v>
+        <v>37.46089541307574</v>
       </c>
       <c r="M4" t="n">
-        <v>119.5318764051767</v>
+        <v>83.0891231149967</v>
       </c>
       <c r="N4" t="n">
-        <v>169.5097832583024</v>
+        <v>133.0670299681225</v>
       </c>
       <c r="O4" t="n">
-        <v>199.656173881301</v>
+        <v>163.2134205911211</v>
       </c>
       <c r="P4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Q4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="R4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="S4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="T4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="U4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="V4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="W4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="X4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>215.1852719224906</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="C5" t="n">
-        <v>215.1852719224906</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="D5" t="n">
-        <v>160.8455567905485</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="E5" t="n">
-        <v>106.5058416586064</v>
+        <v>30.48646439055056</v>
       </c>
       <c r="F5" t="n">
-        <v>52.16612652666438</v>
+        <v>23.54096364134708</v>
       </c>
       <c r="G5" t="n">
-        <v>36.85102700411946</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="H5" t="n">
-        <v>4.303705438449811</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="I5" t="n">
-        <v>4.303705438449811</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="J5" t="n">
-        <v>4.303705438449811</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K5" t="n">
-        <v>4.303705438449811</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="L5" t="n">
-        <v>57.56206023926622</v>
+        <v>103.9944324418577</v>
       </c>
       <c r="M5" t="n">
-        <v>110.8204150400826</v>
+        <v>153.9723392949834</v>
       </c>
       <c r="N5" t="n">
-        <v>164.078769840899</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="O5" t="n">
-        <v>210.024473605</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="P5" t="n">
-        <v>210.024473605</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q5" t="n">
-        <v>215.1852719224906</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="R5" t="n">
-        <v>215.1852719224906</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S5" t="n">
-        <v>215.1852719224906</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="T5" t="n">
-        <v>215.1852719224906</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="U5" t="n">
-        <v>215.1852719224906</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="V5" t="n">
-        <v>215.1852719224906</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="W5" t="n">
-        <v>215.1852719224906</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="X5" t="n">
-        <v>215.1852719224906</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="Y5" t="n">
-        <v>215.1852719224906</v>
+        <v>99.94561517409093</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.303705438449811</v>
+        <v>157.016601144929</v>
       </c>
       <c r="C6" t="n">
-        <v>4.303705438449811</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="D6" t="n">
-        <v>4.303705438449811</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="E6" t="n">
-        <v>4.303705438449811</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F6" t="n">
-        <v>4.303705438449811</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G6" t="n">
-        <v>4.303705438449811</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H6" t="n">
-        <v>4.303705438449811</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I6" t="n">
-        <v>4.303705438449811</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J6" t="n">
-        <v>10.61032575544672</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K6" t="n">
-        <v>10.61032575544672</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L6" t="n">
-        <v>10.61032575544672</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="M6" t="n">
-        <v>63.86868055626314</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="N6" t="n">
-        <v>117.1270353570795</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O6" t="n">
-        <v>170.385390157896</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="P6" t="n">
-        <v>215.1852719224906</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.1852719224906</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="R6" t="n">
-        <v>160.8455567905485</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="S6" t="n">
-        <v>106.5058416586064</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="T6" t="n">
-        <v>58.64342057039187</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U6" t="n">
-        <v>58.64342057039187</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="V6" t="n">
-        <v>58.64342057039187</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="W6" t="n">
-        <v>4.303705438449811</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="X6" t="n">
-        <v>4.303705438449811</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.303705438449811</v>
+        <v>201.9309367803062</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.38678689876497</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="C7" t="n">
-        <v>19.38678689876497</v>
+        <v>157.016601144929</v>
       </c>
       <c r="D7" t="n">
-        <v>19.38678689876497</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="E7" t="n">
-        <v>19.38678689876497</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="F7" t="n">
-        <v>19.38678689876497</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G7" t="n">
-        <v>19.38678689876497</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H7" t="n">
-        <v>19.38678689876497</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I7" t="n">
-        <v>19.38678689876497</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J7" t="n">
-        <v>19.38678689876497</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K7" t="n">
-        <v>4.303705438449811</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L7" t="n">
-        <v>40.91308160718852</v>
+        <v>37.46089541307574</v>
       </c>
       <c r="M7" t="n">
-        <v>89.90165885833002</v>
+        <v>83.0891231149967</v>
       </c>
       <c r="N7" t="n">
-        <v>143.1600136591464</v>
+        <v>133.0670299681225</v>
       </c>
       <c r="O7" t="n">
-        <v>176.3364289177236</v>
+        <v>163.2134205911211</v>
       </c>
       <c r="P7" t="n">
-        <v>181.2039013453972</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Q7" t="n">
-        <v>126.8641862134551</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="R7" t="n">
-        <v>72.52447108151307</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="S7" t="n">
-        <v>19.38678689876497</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="T7" t="n">
-        <v>19.38678689876497</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="U7" t="n">
-        <v>19.38678689876497</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="V7" t="n">
-        <v>19.38678689876497</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="W7" t="n">
-        <v>19.38678689876497</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="X7" t="n">
-        <v>19.38678689876497</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.38678689876497</v>
+        <v>165.4881834901262</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>624.2639643526026</v>
+        <v>1362.88104425776</v>
       </c>
       <c r="C8" t="n">
-        <v>452.4122580240011</v>
+        <v>993.9185273173482</v>
       </c>
       <c r="D8" t="n">
-        <v>280.5605516953996</v>
+        <v>993.9185273173482</v>
       </c>
       <c r="E8" t="n">
-        <v>108.7088453667981</v>
+        <v>608.1302747191039</v>
       </c>
       <c r="F8" t="n">
-        <v>101.7633446175946</v>
+        <v>197.1443699294963</v>
       </c>
       <c r="G8" t="n">
-        <v>87.82019879765724</v>
+        <v>182.6821185140808</v>
       </c>
       <c r="H8" t="n">
-        <v>87.82019879765724</v>
+        <v>182.6821185140808</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122524</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="J8" t="n">
-        <v>127.7362978821348</v>
+        <v>112.5548425668335</v>
       </c>
       <c r="K8" t="n">
-        <v>127.7362978821348</v>
+        <v>339.626263221365</v>
       </c>
       <c r="L8" t="n">
-        <v>155.6202029777879</v>
+        <v>673.6050671140501</v>
       </c>
       <c r="M8" t="n">
-        <v>324.0520603504502</v>
+        <v>1061.827382743837</v>
       </c>
       <c r="N8" t="n">
-        <v>361.7328317201579</v>
+        <v>1441.699543768635</v>
       </c>
       <c r="O8" t="n">
-        <v>530.1646890928203</v>
+        <v>1755.214415687428</v>
       </c>
       <c r="P8" t="n">
-        <v>530.1646890928203</v>
+        <v>1985.117722539669</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612618</v>
+        <v>2080.543771665452</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643526026</v>
+        <v>2080.543771665452</v>
       </c>
       <c r="S8" t="n">
-        <v>624.2639643526026</v>
+        <v>2080.543771665452</v>
       </c>
       <c r="T8" t="n">
-        <v>624.2639643526026</v>
+        <v>2080.543771665452</v>
       </c>
       <c r="U8" t="n">
-        <v>624.2639643526026</v>
+        <v>2080.543771665452</v>
       </c>
       <c r="V8" t="n">
-        <v>624.2639643526026</v>
+        <v>1749.480884321882</v>
       </c>
       <c r="W8" t="n">
-        <v>624.2639643526026</v>
+        <v>1749.480884321882</v>
       </c>
       <c r="X8" t="n">
-        <v>624.2639643526026</v>
+        <v>1749.480884321882</v>
       </c>
       <c r="Y8" t="n">
-        <v>624.2639643526026</v>
+        <v>1749.480884321882</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.01697597599758</v>
+        <v>808.9687491597132</v>
       </c>
       <c r="C9" t="n">
-        <v>76.01697597599758</v>
+        <v>634.5157198785862</v>
       </c>
       <c r="D9" t="n">
-        <v>76.01697597599758</v>
+        <v>485.5813102173349</v>
       </c>
       <c r="E9" t="n">
-        <v>76.01697597599758</v>
+        <v>326.3438552118794</v>
       </c>
       <c r="F9" t="n">
-        <v>76.01697597599758</v>
+        <v>179.8092972387644</v>
       </c>
       <c r="G9" t="n">
-        <v>76.01697597599758</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="H9" t="n">
-        <v>76.01697597599758</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122524</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="J9" t="n">
-        <v>87.88972643578467</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="K9" t="n">
-        <v>256.321583808447</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="L9" t="n">
-        <v>308.4011794538043</v>
+        <v>356.5655289021198</v>
       </c>
       <c r="M9" t="n">
-        <v>368.8769740468306</v>
+        <v>809.1152923949335</v>
       </c>
       <c r="N9" t="n">
-        <v>445.3620278871386</v>
+        <v>1289.34971491101</v>
       </c>
       <c r="O9" t="n">
-        <v>493.1111143841777</v>
+        <v>1662.254711852285</v>
       </c>
       <c r="P9" t="n">
-        <v>512.1008996885995</v>
+        <v>1944.540780105517</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612618</v>
+        <v>2080.543771665452</v>
       </c>
       <c r="R9" t="n">
-        <v>629.6635680484221</v>
+        <v>2080.543771665452</v>
       </c>
       <c r="S9" t="n">
-        <v>471.2943968347192</v>
+        <v>2080.543771665452</v>
       </c>
       <c r="T9" t="n">
-        <v>299.4426905061177</v>
+        <v>2080.543771665452</v>
       </c>
       <c r="U9" t="n">
-        <v>127.5909841775163</v>
+        <v>1882.185350110212</v>
       </c>
       <c r="V9" t="n">
-        <v>76.01697597599758</v>
+        <v>1647.033241878469</v>
       </c>
       <c r="W9" t="n">
-        <v>76.01697597599758</v>
+        <v>1392.795885150268</v>
       </c>
       <c r="X9" t="n">
-        <v>76.01697597599758</v>
+        <v>1184.944384944735</v>
       </c>
       <c r="Y9" t="n">
-        <v>76.01697597599758</v>
+        <v>977.1840861797812</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.61065514122524</v>
+        <v>508.5767913559448</v>
       </c>
       <c r="C10" t="n">
-        <v>13.61065514122524</v>
+        <v>339.6406084280379</v>
       </c>
       <c r="D10" t="n">
-        <v>13.61065514122524</v>
+        <v>189.5239690157022</v>
       </c>
       <c r="E10" t="n">
-        <v>13.61065514122524</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="F10" t="n">
-        <v>13.61065514122524</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="G10" t="n">
-        <v>13.61065514122524</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122524</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122524</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122524</v>
+        <v>41.61087543330905</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724058089</v>
+        <v>70.38978446187301</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340641</v>
+        <v>162.7433143898065</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694279</v>
+        <v>270.5062858729277</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004893</v>
+        <v>381.1415111781178</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689189</v>
+        <v>467.3147530630836</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612618</v>
+        <v>517.5301661543458</v>
       </c>
       <c r="Q10" t="n">
-        <v>680.5327570612618</v>
+        <v>517.5301661543458</v>
       </c>
       <c r="R10" t="n">
-        <v>680.5327570612618</v>
+        <v>517.5301661543458</v>
       </c>
       <c r="S10" t="n">
-        <v>680.5327570612618</v>
+        <v>517.5301661543458</v>
       </c>
       <c r="T10" t="n">
-        <v>680.5327570612618</v>
+        <v>517.5301661543458</v>
       </c>
       <c r="U10" t="n">
-        <v>680.5327570612618</v>
+        <v>517.5301661543458</v>
       </c>
       <c r="V10" t="n">
-        <v>680.5327570612618</v>
+        <v>517.5301661543458</v>
       </c>
       <c r="W10" t="n">
-        <v>508.6810507326603</v>
+        <v>517.5301661543458</v>
       </c>
       <c r="X10" t="n">
-        <v>336.8293444040588</v>
+        <v>517.5301661543458</v>
       </c>
       <c r="Y10" t="n">
-        <v>164.9776380754573</v>
+        <v>517.5301661543458</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991042</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>781.250370848291</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2148.422832439301</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1859.347605783499</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1604.663117577612</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1315.245947540652</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1087.256396642634</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>866.4638174991042</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.8686257536381</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2854.44064873475</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>2854.44064873475</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>424.9938751277886</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>878.3568999154069</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>728.2402605030711</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>527.7722521572603</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>379.8591585748671</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2970.825600989577</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2801.88941806167</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2651.772778649335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>2651.772778649335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3152.474065819817</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,10 +6925,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D46" t="n">
-        <v>594.8179559048574</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>446.9048623224643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>300.0149148245539</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.076938957246</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.475473980187</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.400247324385</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.715759118498</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.298589081537</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>983.30903818352</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>983.30903818352</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
-        <v>271.649412930509</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
         <v>261.34821032935</v>
       </c>
       <c r="O2" t="n">
-        <v>214.5102874732696</v>
+        <v>264.993021668346</v>
       </c>
       <c r="P2" t="n">
-        <v>217.9290633046618</v>
+        <v>268.4117974997384</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,19 +8063,19 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>178.2892129380686</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>180.0744745527947</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
         <v>162.980370263109</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>181.3015543884808</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
         <v>184.1458149818875</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>258.8041889468121</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>271.649412930509</v>
       </c>
       <c r="M5" t="n">
-        <v>259.4212368511231</v>
+        <v>264.5839477933977</v>
       </c>
       <c r="N5" t="n">
-        <v>258.0880505088102</v>
+        <v>261.34821032935</v>
       </c>
       <c r="O5" t="n">
-        <v>252.7866526327947</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>176.2495065059443</v>
       </c>
       <c r="M6" t="n">
-        <v>176.8437648107177</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N6" t="n">
-        <v>165.5462778056219</v>
+        <v>168.9501955242219</v>
       </c>
       <c r="O6" t="n">
-        <v>178.4699366681766</v>
+        <v>181.3015543884808</v>
       </c>
       <c r="P6" t="n">
-        <v>164.8423259806504</v>
+        <v>175.0047203318838</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605138</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>27.3748793929631</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>137.2640732086596</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>147.6628633500761</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>15.67159251783295</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>77.04016551526357</v>
       </c>
       <c r="K9" t="n">
-        <v>178.4614495570663</v>
+        <v>52.72964624369611</v>
       </c>
       <c r="L9" t="n">
-        <v>17.01358028917524</v>
+        <v>342.2470846107578</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>207.7342274853341</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>13.3019692955605</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>146.9958004224551</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>169.2521344095049</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>75.37549921168804</v>
       </c>
       <c r="Y19" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>9.000252501566337</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>123.3744592024055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>50.86033664601051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>109.0289520621393</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.5956654067388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F37" t="n">
-        <v>32.89260457060011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>260.4525338942707</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>66.34424953498198</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>883821.666566778</v>
+        <v>884965.5536790625</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>852182.3658956141</v>
+        <v>916497.2288647471</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39093.92006262176</v>
+        <v>39093.92006262175</v>
       </c>
       <c r="C3" t="n">
-        <v>12004.91953871608</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543823</v>
+        <v>336040.0192047127</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756734</v>
+        <v>1097008.861672794</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317184398</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031419</v>
+        <v>118865.0002484791</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299111</v>
+        <v>162623.6387090554</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391795.6024650927</v>
+        <v>391239.9394557325</v>
       </c>
       <c r="C4" t="n">
-        <v>388871.1873634887</v>
+        <v>391239.9394557325</v>
       </c>
       <c r="D4" t="n">
-        <v>306158.3169903276</v>
+        <v>282433.8818102718</v>
       </c>
       <c r="E4" t="n">
-        <v>7463.774820208537</v>
+        <v>7405.452923911831</v>
       </c>
       <c r="F4" t="n">
-        <v>7463.774820208537</v>
+        <v>7405.452923911831</v>
       </c>
       <c r="G4" t="n">
-        <v>7463.774820208539</v>
+        <v>7405.452923911831</v>
       </c>
       <c r="H4" t="n">
-        <v>7463.774820208539</v>
+        <v>7405.452923911831</v>
       </c>
       <c r="I4" t="n">
-        <v>7463.774820208538</v>
+        <v>7405.452923911831</v>
       </c>
       <c r="J4" t="n">
-        <v>7463.774820208539</v>
+        <v>7405.452923911831</v>
       </c>
       <c r="K4" t="n">
-        <v>7463.774820208539</v>
+        <v>7405.452923911831</v>
       </c>
       <c r="L4" t="n">
-        <v>7463.774820208539</v>
+        <v>7405.452923911831</v>
       </c>
       <c r="M4" t="n">
-        <v>7463.774820208539</v>
+        <v>7405.452923911831</v>
       </c>
       <c r="N4" t="n">
-        <v>7463.774820208539</v>
+        <v>7405.452923911831</v>
       </c>
       <c r="O4" t="n">
-        <v>7463.774820208539</v>
+        <v>7405.452923911831</v>
       </c>
       <c r="P4" t="n">
-        <v>7463.774820208537</v>
+        <v>7405.452923911831</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>37198.64198163266</v>
       </c>
       <c r="C5" t="n">
-        <v>37661.87961689879</v>
+        <v>37198.64198163266</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241499</v>
+        <v>70593.86306519818</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147693.1628888653</v>
+        <v>148248.8258982257</v>
       </c>
       <c r="C6" t="n">
-        <v>177243.3408791089</v>
+        <v>187342.7459608473</v>
       </c>
       <c r="D6" t="n">
-        <v>-67963.91285891249</v>
+        <v>-73286.43668197043</v>
       </c>
       <c r="E6" t="n">
-        <v>-602034.318633345</v>
+        <v>-600524.2739074659</v>
       </c>
       <c r="F6" t="n">
-        <v>496773.6451233887</v>
+        <v>496484.5877653285</v>
       </c>
       <c r="G6" t="n">
-        <v>496773.6451233885</v>
+        <v>496484.5877653285</v>
       </c>
       <c r="H6" t="n">
-        <v>496773.6451233889</v>
+        <v>496484.5877653283</v>
       </c>
       <c r="I6" t="n">
-        <v>496773.6451233887</v>
+        <v>496484.5877653283</v>
       </c>
       <c r="J6" t="n">
-        <v>483565.1406176522</v>
+        <v>483276.0832595919</v>
       </c>
       <c r="K6" t="n">
-        <v>495920.8346916703</v>
+        <v>496484.5877653286</v>
       </c>
       <c r="L6" t="n">
-        <v>467329.8300330745</v>
+        <v>377619.5875168493</v>
       </c>
       <c r="M6" t="n">
-        <v>246927.9201934778</v>
+        <v>333860.949056273</v>
       </c>
       <c r="N6" t="n">
-        <v>496773.6451233887</v>
+        <v>496484.5877653285</v>
       </c>
       <c r="O6" t="n">
-        <v>496773.6451233886</v>
+        <v>496484.5877653285</v>
       </c>
       <c r="P6" t="n">
-        <v>496773.6451233886</v>
+        <v>496484.5877653284</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>35.02126071912533</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075145</v>
+        <v>245.0457677010692</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>50.48273419507654</v>
       </c>
       <c r="C4" t="n">
-        <v>53.79631798062264</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653155</v>
+        <v>520.1359429163631</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>12.007878032336</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883892</v>
+        <v>222.0323850142799</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341593</v>
+        <v>1122.929732640604</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>50.48273419507654</v>
       </c>
       <c r="C4" t="n">
-        <v>3.313583785546101</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846928</v>
+        <v>469.6532087212866</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.575098834333</v>
+        <v>652.5723451832853</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546143</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846928</v>
+        <v>469.6532087212866</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834333</v>
+        <v>652.5723451832853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>50.48273419507654</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546101</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846928</v>
+        <v>469.6532087212866</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834333</v>
+        <v>652.5723451832853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>314.790157575931</v>
       </c>
       <c r="D2" t="n">
         <v>304.2003074256064</v>
       </c>
       <c r="E2" t="n">
-        <v>331.4476358771852</v>
+        <v>363.6485449916333</v>
       </c>
       <c r="F2" t="n">
-        <v>356.3933115466349</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>370.745029124808</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27402,7 +27402,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>93.57486856939362</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27463,13 +27463,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>102.9798732856153</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>107.1623462603244</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>100.6040201143605</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.60172783196103</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>120.2809871382089</v>
@@ -27517,7 +27517,7 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>182.3178529543487</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>116.7640869035513</v>
+        <v>158.8599545768826</v>
       </c>
       <c r="D4" t="n">
         <v>98.13273882313581</v>
@@ -27548,10 +27548,10 @@
         <v>95.95122845149263</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>94.9383138278547</v>
       </c>
       <c r="G4" t="n">
-        <v>159.5626132941636</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>314.790157575931</v>
       </c>
       <c r="D5" t="n">
-        <v>300.8867236400603</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>328.1340520916391</v>
+        <v>363.6485449916333</v>
       </c>
       <c r="F5" t="n">
-        <v>353.0797277610888</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>305.8110985442879</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>93.57486856939362</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>122.0679913708439</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>122.2257647932392</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>96.96233136956221</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>107.1623462603244</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.68452591975693</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>116.4876546407105</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>152.4773040948394</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>197.898665180297</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27776,31 +27776,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>158.8599545768826</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>98.13273882313581</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>95.95122845149263</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>94.9383138278547</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.07751490248382</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>120.6574806831568</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>170.309704519026</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>195.1397025056921</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>184.5498523553675</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>211.7971808069463</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>324.1229312460397</v>
+        <v>329.3860585239337</v>
       </c>
       <c r="I8" t="n">
-        <v>79.21735122919871</v>
+        <v>32.83695908407819</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>87.98828897490932</v>
       </c>
       <c r="S8" t="n">
-        <v>174.8610794782102</v>
+        <v>186.5719070475997</v>
       </c>
       <c r="T8" t="n">
-        <v>216.5338757101358</v>
+        <v>218.7835366068995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2257310555647</v>
+        <v>251.2668442187266</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5414690675039</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.4893481542762</v>
+        <v>107.1449651753856</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>71.24937552638306</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>67.43266540192297</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>161.8928991584225</v>
       </c>
       <c r="T9" t="n">
-        <v>26.79872276303911</v>
+        <v>198.0402281239039</v>
       </c>
       <c r="U9" t="n">
-        <v>55.7554264935734</v>
+        <v>29.53186845340471</v>
       </c>
       <c r="V9" t="n">
-        <v>181.7423190299218</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.9786670770475</v>
+        <v>170.9681391315203</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.31856917756</v>
+        <v>167.5490935478503</v>
       </c>
       <c r="H10" t="n">
-        <v>156.2488347172666</v>
+        <v>158.2984059367569</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416836</v>
+        <v>142.1617634591413</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712785</v>
+        <v>62.11785330665286</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983115969</v>
+        <v>49.16013232883294</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160291</v>
+        <v>157.4245984747189</v>
       </c>
       <c r="S10" t="n">
-        <v>212.2983224298541</v>
+        <v>216.3157335011862</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0725641098957</v>
+        <v>226.0575318738634</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2823524375328</v>
+        <v>286.2949264940941</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>116.3898090712756</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>55.5764661237217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.45146408677934</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4418552214663</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I5" t="n">
-        <v>5.427767452760119</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884599</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L5" t="n">
-        <v>22.21755819470702</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M5" t="n">
-        <v>24.72131435677232</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840334</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081217</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411506</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796963</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>8.843836255870379</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847512</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727678</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>7.11691487877999</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335884</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358773</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M6" t="n">
-        <v>19.0865870919233</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833409</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689049</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650263</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164375</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263569</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504676</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
-        <v>1.899185745227322</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174388</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170845</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894684</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>9.899534402948818</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>9.664145601394049</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179686</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938413</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.288210368587925</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
-        <v>2.839592713390063</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025627</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397042</v>
+        <v>0.9851086138736442</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972746</v>
+        <v>10.08874359183346</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133953</v>
+        <v>37.97839983636371</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656323</v>
+        <v>83.60986221675829</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489292</v>
+        <v>125.3095098420297</v>
       </c>
       <c r="L8" t="n">
-        <v>236.557096279704</v>
+        <v>155.4575275838652</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839286</v>
+        <v>172.9764528958407</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185179</v>
+        <v>175.7753927450092</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369261</v>
+        <v>165.9797189658031</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374366</v>
+        <v>141.6598500607975</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.877636556405</v>
+        <v>106.3806478264476</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957703</v>
+        <v>61.88082896624036</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803513</v>
+        <v>22.44816253864569</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995556</v>
+        <v>4.31231295723188</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717634</v>
+        <v>0.07880868910989153</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067294</v>
+        <v>0.527079575809847</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220256</v>
+        <v>5.090479061110891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499047</v>
+        <v>18.14725732503202</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025728</v>
+        <v>49.79746115140313</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826082</v>
+        <v>85.11179273066288</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577265</v>
+        <v>114.4433087739758</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270954</v>
+        <v>133.5499433970827</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250586</v>
+        <v>137.0846130085444</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465042</v>
+        <v>125.4056392498104</v>
       </c>
       <c r="P9" t="n">
-        <v>153.156008731928</v>
+        <v>100.649081454426</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660029</v>
+        <v>67.28124550162187</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993187</v>
+        <v>32.72516875072016</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227192</v>
+        <v>9.790271945415352</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666467035</v>
+        <v>2.12450057091776</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596906</v>
+        <v>0.03467628788222678</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987967</v>
+        <v>0.4418858106084854</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172942</v>
+        <v>3.928766570682718</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557473</v>
+        <v>13.288711468117</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954492</v>
+        <v>31.24132681001991</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078745</v>
+        <v>51.33909690524038</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017201</v>
+        <v>65.69636860628337</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657995</v>
+        <v>69.26760938474648</v>
       </c>
       <c r="N10" t="n">
-        <v>102.897096136995</v>
+        <v>67.62058045429673</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013177</v>
+        <v>62.45855075764303</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979625</v>
+        <v>53.44408022122988</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.3051834205347</v>
+        <v>37.00191092286145</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114043</v>
+        <v>19.86879290245062</v>
       </c>
       <c r="S10" t="n">
-        <v>11.71827560711812</v>
+        <v>7.700864535786057</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385767</v>
+        <v>1.888057554418073</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811622</v>
+        <v>0.0241028623968265</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32551,28 +32551,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226051</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33736,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33973,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,7 +34456,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -34468,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34704,19 +34704,19 @@
         <v>50.48273419507654</v>
       </c>
       <c r="L2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>48.44302776295223</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>44.51290893396359</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="Q3" t="n">
         <v>50.48273419507654</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="L5" t="n">
-        <v>53.79631798062264</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="M5" t="n">
-        <v>53.79631798062264</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="N5" t="n">
-        <v>53.79631798062264</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="O5" t="n">
-        <v>46.40980178192013</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="M6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>53.79631798062264</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O6" t="n">
-        <v>53.79631798062264</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="P6" t="n">
-        <v>45.25240582282283</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.97916784721082</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M7" t="n">
-        <v>49.4834113647894</v>
+        <v>46.08911889082925</v>
       </c>
       <c r="N7" t="n">
-        <v>53.79631798062264</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O7" t="n">
-        <v>33.51153056421936</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831901</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>115.2784270110198</v>
+        <v>71.66057286214577</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>229.3650713682139</v>
       </c>
       <c r="L8" t="n">
-        <v>28.16556070267982</v>
+        <v>337.3523271643285</v>
       </c>
       <c r="M8" t="n">
-        <v>170.1331892653155</v>
+        <v>392.1437531614004</v>
       </c>
       <c r="N8" t="n">
-        <v>38.06138522192703</v>
+        <v>383.7092535604024</v>
       </c>
       <c r="O8" t="n">
-        <v>170.1331892653155</v>
+        <v>316.6816888068618</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>232.2255624770106</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.8869373418601</v>
+        <v>96.38994861190277</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>75.02936494399943</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>170.1331892653155</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>52.60565216702758</v>
+        <v>318.1360136048594</v>
       </c>
       <c r="M9" t="n">
-        <v>61.08666120507709</v>
+        <v>457.1209732250643</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172526</v>
+        <v>485.0852752687646</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23140050205973</v>
+        <v>376.6717140820955</v>
       </c>
       <c r="P9" t="n">
-        <v>19.18160131759777</v>
+        <v>285.1374426800329</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.1331892653155</v>
+        <v>137.3767591514494</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.8523455549046</v>
+        <v>29.06960507935753</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004882</v>
+        <v>93.28639386659951</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276401</v>
+        <v>108.8514863465871</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162236</v>
+        <v>111.7527528335253</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741714</v>
+        <v>87.0436786716827</v>
       </c>
       <c r="P10" t="n">
-        <v>78.60351423468974</v>
+        <v>50.72263948612337</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>477.9853321427309</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,7 +38104,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312443</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1250000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Output Files/1250000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2258214.166429879</v>
+        <v>2259974.696732664</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.28182508062843</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>18.28182508062843</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -709,10 +709,10 @@
         <v>50.48273419507654</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="F3" t="n">
-        <v>44.46519227902342</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.4651922790234</v>
       </c>
       <c r="S3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>8.386866521745219</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50.48273419507654</v>
       </c>
       <c r="E4" t="n">
         <v>50.48273419507654</v>
@@ -831,7 +831,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18.28182508062843</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.21022140383137</v>
+        <v>33.49204648445981</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852176</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.4651922790234</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C6" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44.46519227902342</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,20 +1056,20 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>8.386866521745219</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>41.4216011981056</v>
+      </c>
+      <c r="G7" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="E7" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="F7" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>225.3464077170469</v>
       </c>
       <c r="G8" t="n">
-        <v>14.31762890126141</v>
+        <v>14.31762890126142</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>139.660530649964</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>71.24937552638328</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>196.3748373396879</v>
+        <v>125.1254618132913</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.86384105041699</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>124.081296533257</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474254</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.619672595757198</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1818,13 +1818,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>99.01360035611813</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>150.3341561773491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.4286493356916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428571</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="24">
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="26">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428168</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>110.1444095748051</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3556,13 +3556,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.81060261323905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8640357413583</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>114.6820364666626</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="C2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="D2" t="n">
         <v>48.95295437098331</v>
       </c>
       <c r="E2" t="n">
-        <v>30.48646439055056</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="F2" t="n">
-        <v>23.54096364134708</v>
+        <v>42.00745362177985</v>
       </c>
       <c r="G2" t="n">
-        <v>8.177103637477007</v>
+        <v>26.64359361790977</v>
       </c>
       <c r="H2" t="n">
-        <v>8.177103637477007</v>
+        <v>26.64359361790977</v>
       </c>
       <c r="I2" t="n">
         <v>8.177103637477007</v>
@@ -4357,25 +4357,25 @@
         <v>150.9382759771985</v>
       </c>
       <c r="S2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="T2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="U2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="V2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="W2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="X2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="Y2" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.94561517409093</v>
+        <v>157.016601144929</v>
       </c>
       <c r="C3" t="n">
-        <v>99.94561517409093</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="D3" t="n">
-        <v>99.94561517409093</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="E3" t="n">
-        <v>48.95295437098331</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="F3" t="n">
-        <v>4.038618735606123</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="G3" t="n">
-        <v>4.038618735606123</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="H3" t="n">
-        <v>4.038618735606123</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4412,49 +4412,49 @@
         <v>7.929436376304878</v>
       </c>
       <c r="K3" t="n">
-        <v>7.929436376304878</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="L3" t="n">
-        <v>7.929436376304878</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="M3" t="n">
-        <v>7.929436376304878</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="N3" t="n">
-        <v>51.99721622092883</v>
+        <v>107.8852500825564</v>
       </c>
       <c r="O3" t="n">
-        <v>101.9751230740546</v>
+        <v>157.8631569356822</v>
       </c>
       <c r="P3" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="S3" t="n">
-        <v>150.9382759771985</v>
+        <v>157.016601144929</v>
       </c>
       <c r="T3" t="n">
-        <v>150.9382759771985</v>
+        <v>157.016601144929</v>
       </c>
       <c r="U3" t="n">
-        <v>150.9382759771985</v>
+        <v>157.016601144929</v>
       </c>
       <c r="V3" t="n">
-        <v>99.94561517409093</v>
+        <v>157.016601144929</v>
       </c>
       <c r="W3" t="n">
-        <v>99.94561517409093</v>
+        <v>157.016601144929</v>
       </c>
       <c r="X3" t="n">
-        <v>99.94561517409093</v>
+        <v>157.016601144929</v>
       </c>
       <c r="Y3" t="n">
-        <v>99.94561517409093</v>
+        <v>157.016601144929</v>
       </c>
     </row>
     <row r="4">
@@ -4467,16 +4467,16 @@
         <v>165.4881834901262</v>
       </c>
       <c r="C4" t="n">
+        <v>165.4881834901262</v>
+      </c>
+      <c r="D4" t="n">
         <v>157.016601144929</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>106.0239403418214</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>55.03127953871374</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.038618735606123</v>
       </c>
       <c r="G4" t="n">
         <v>4.038618735606123</v>
@@ -4546,25 +4546,25 @@
         <v>99.94561517409093</v>
       </c>
       <c r="C5" t="n">
+        <v>99.94561517409093</v>
+      </c>
+      <c r="D5" t="n">
+        <v>99.94561517409093</v>
+      </c>
+      <c r="E5" t="n">
         <v>48.95295437098331</v>
       </c>
-      <c r="D5" t="n">
-        <v>48.95295437098331</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30.48646439055056</v>
-      </c>
       <c r="F5" t="n">
-        <v>23.54096364134708</v>
+        <v>42.00745362177985</v>
       </c>
       <c r="G5" t="n">
-        <v>8.177103637477007</v>
+        <v>8.177103637477009</v>
       </c>
       <c r="H5" t="n">
-        <v>8.177103637477007</v>
+        <v>8.177103637477009</v>
       </c>
       <c r="I5" t="n">
-        <v>8.177103637477007</v>
+        <v>8.177103637477009</v>
       </c>
       <c r="J5" t="n">
         <v>4.038618735606123</v>
@@ -4573,16 +4573,16 @@
         <v>54.01652558873189</v>
       </c>
       <c r="L5" t="n">
-        <v>103.9944324418577</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M5" t="n">
-        <v>153.9723392949834</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="N5" t="n">
-        <v>201.9309367803062</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O5" t="n">
-        <v>201.9309367803062</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="P5" t="n">
         <v>201.9309367803062</v>
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.016601144929</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="C6" t="n">
-        <v>106.0239403418214</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="D6" t="n">
+        <v>99.94561517409093</v>
+      </c>
+      <c r="E6" t="n">
+        <v>99.94561517409093</v>
+      </c>
+      <c r="F6" t="n">
+        <v>99.94561517409093</v>
+      </c>
+      <c r="G6" t="n">
         <v>55.03127953871374</v>
       </c>
-      <c r="E6" t="n">
-        <v>4.038618735606123</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.038618735606123</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.038618735606123</v>
-      </c>
       <c r="H6" t="n">
-        <v>4.038618735606123</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="I6" t="n">
         <v>4.038618735606123</v>
       </c>
       <c r="J6" t="n">
-        <v>4.038618735606123</v>
+        <v>7.929436376304878</v>
       </c>
       <c r="K6" t="n">
-        <v>4.038618735606123</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="L6" t="n">
-        <v>51.99721622092883</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="M6" t="n">
-        <v>51.99721622092883</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N6" t="n">
         <v>101.9751230740546</v>
@@ -4664,7 +4664,7 @@
         <v>151.9530299271804</v>
       </c>
       <c r="P6" t="n">
-        <v>201.9309367803062</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="Q6" t="n">
         <v>201.9309367803062</v>
@@ -4704,28 +4704,28 @@
         <v>165.4881834901262</v>
       </c>
       <c r="C7" t="n">
-        <v>157.016601144929</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="D7" t="n">
-        <v>106.0239403418214</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="E7" t="n">
-        <v>55.03127953871374</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="F7" t="n">
-        <v>4.038618735606123</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="G7" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="H7" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="I7" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="J7" t="n">
-        <v>4.038618735606123</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="K7" t="n">
         <v>4.038618735606123</v>
@@ -4734,7 +4734,7 @@
         <v>37.46089541307574</v>
       </c>
       <c r="M7" t="n">
-        <v>83.0891231149967</v>
+        <v>83.08912311499668</v>
       </c>
       <c r="N7" t="n">
         <v>133.0670299681225</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1362.88104425776</v>
+        <v>1396.712229051754</v>
       </c>
       <c r="C8" t="n">
-        <v>993.9185273173482</v>
+        <v>1027.749712111342</v>
       </c>
       <c r="D8" t="n">
-        <v>993.9185273173482</v>
+        <v>669.4840135045918</v>
       </c>
       <c r="E8" t="n">
-        <v>608.1302747191039</v>
+        <v>283.6957609063475</v>
       </c>
       <c r="F8" t="n">
-        <v>197.1443699294963</v>
+        <v>56.07312684872435</v>
       </c>
       <c r="G8" t="n">
-        <v>182.6821185140808</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="H8" t="n">
-        <v>182.6821185140808</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="I8" t="n">
-        <v>41.61087543330905</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="J8" t="n">
-        <v>112.5548425668335</v>
+        <v>112.5548425668322</v>
       </c>
       <c r="K8" t="n">
-        <v>339.626263221365</v>
+        <v>339.6262632213626</v>
       </c>
       <c r="L8" t="n">
-        <v>673.6050671140501</v>
+        <v>673.6050671140459</v>
       </c>
       <c r="M8" t="n">
-        <v>1061.827382743837</v>
+        <v>1061.82738274383</v>
       </c>
       <c r="N8" t="n">
-        <v>1441.699543768635</v>
+        <v>1441.699543768626</v>
       </c>
       <c r="O8" t="n">
-        <v>1755.214415687428</v>
+        <v>1755.214415687417</v>
       </c>
       <c r="P8" t="n">
-        <v>1985.117722539669</v>
+        <v>1985.117722539656</v>
       </c>
       <c r="Q8" t="n">
-        <v>2080.543771665452</v>
+        <v>2080.543771665439</v>
       </c>
       <c r="R8" t="n">
-        <v>2080.543771665452</v>
+        <v>2080.543771665439</v>
       </c>
       <c r="S8" t="n">
-        <v>2080.543771665452</v>
+        <v>2080.543771665439</v>
       </c>
       <c r="T8" t="n">
-        <v>2080.543771665452</v>
+        <v>2080.543771665439</v>
       </c>
       <c r="U8" t="n">
-        <v>2080.543771665452</v>
+        <v>2080.543771665439</v>
       </c>
       <c r="V8" t="n">
-        <v>1749.480884321882</v>
+        <v>1749.480884321868</v>
       </c>
       <c r="W8" t="n">
-        <v>1749.480884321882</v>
+        <v>1396.712229051754</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.480884321882</v>
+        <v>1396.712229051754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.480884321882</v>
+        <v>1396.712229051754</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>808.9687491597132</v>
+        <v>880.9378153479789</v>
       </c>
       <c r="C9" t="n">
-        <v>634.5157198785862</v>
+        <v>706.4847860668519</v>
       </c>
       <c r="D9" t="n">
-        <v>485.5813102173349</v>
+        <v>557.5503764056007</v>
       </c>
       <c r="E9" t="n">
-        <v>326.3438552118794</v>
+        <v>398.3129214001451</v>
       </c>
       <c r="F9" t="n">
-        <v>179.8092972387644</v>
+        <v>251.7783634270301</v>
       </c>
       <c r="G9" t="n">
-        <v>41.61087543330905</v>
+        <v>113.5799416215747</v>
       </c>
       <c r="H9" t="n">
-        <v>41.61087543330905</v>
+        <v>113.5799416215747</v>
       </c>
       <c r="I9" t="n">
-        <v>41.61087543330905</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="J9" t="n">
-        <v>41.61087543330905</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="K9" t="n">
-        <v>41.61087543330905</v>
+        <v>251.2291102945014</v>
       </c>
       <c r="L9" t="n">
-        <v>356.5655289021198</v>
+        <v>594.4910918490853</v>
       </c>
       <c r="M9" t="n">
-        <v>809.1152923949335</v>
+        <v>809.1152923949249</v>
       </c>
       <c r="N9" t="n">
-        <v>1289.34971491101</v>
+        <v>1289.349714911</v>
       </c>
       <c r="O9" t="n">
-        <v>1662.254711852285</v>
+        <v>1662.254711852273</v>
       </c>
       <c r="P9" t="n">
-        <v>1944.540780105517</v>
+        <v>1944.540780105505</v>
       </c>
       <c r="Q9" t="n">
-        <v>2080.543771665452</v>
+        <v>2080.543771665439</v>
       </c>
       <c r="R9" t="n">
-        <v>2080.543771665452</v>
+        <v>2080.543771665439</v>
       </c>
       <c r="S9" t="n">
-        <v>2080.543771665452</v>
+        <v>2080.543771665439</v>
       </c>
       <c r="T9" t="n">
-        <v>2080.543771665452</v>
+        <v>2080.543771665439</v>
       </c>
       <c r="U9" t="n">
-        <v>1882.185350110212</v>
+        <v>1954.154416298478</v>
       </c>
       <c r="V9" t="n">
-        <v>1647.033241878469</v>
+        <v>1719.002308066735</v>
       </c>
       <c r="W9" t="n">
-        <v>1392.795885150268</v>
+        <v>1464.764951338534</v>
       </c>
       <c r="X9" t="n">
-        <v>1184.944384944735</v>
+        <v>1256.913451133001</v>
       </c>
       <c r="Y9" t="n">
-        <v>977.1840861797812</v>
+        <v>1049.153152368047</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>508.5767913559448</v>
+        <v>335.8817013241015</v>
       </c>
       <c r="C10" t="n">
-        <v>339.6406084280379</v>
+        <v>166.9455183961946</v>
       </c>
       <c r="D10" t="n">
-        <v>189.5239690157022</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="E10" t="n">
-        <v>41.61087543330905</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="F10" t="n">
-        <v>41.61087543330905</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="G10" t="n">
-        <v>41.61087543330905</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="H10" t="n">
-        <v>41.61087543330905</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="I10" t="n">
-        <v>41.61087543330905</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="J10" t="n">
-        <v>41.61087543330905</v>
+        <v>41.61087543330878</v>
       </c>
       <c r="K10" t="n">
-        <v>70.38978446187301</v>
+        <v>70.38978446187213</v>
       </c>
       <c r="L10" t="n">
-        <v>162.7433143898065</v>
+        <v>162.7433143898049</v>
       </c>
       <c r="M10" t="n">
-        <v>270.5062858729277</v>
+        <v>270.5062858729253</v>
       </c>
       <c r="N10" t="n">
-        <v>381.1415111781178</v>
+        <v>381.1415111781146</v>
       </c>
       <c r="O10" t="n">
-        <v>467.3147530630836</v>
+        <v>467.3147530630797</v>
       </c>
       <c r="P10" t="n">
-        <v>517.5301661543458</v>
+        <v>517.5301661543413</v>
       </c>
       <c r="Q10" t="n">
-        <v>517.5301661543458</v>
+        <v>517.5301661543413</v>
       </c>
       <c r="R10" t="n">
-        <v>517.5301661543458</v>
+        <v>517.5301661543413</v>
       </c>
       <c r="S10" t="n">
-        <v>517.5301661543458</v>
+        <v>517.5301661543413</v>
       </c>
       <c r="T10" t="n">
-        <v>517.5301661543458</v>
+        <v>517.5301661543413</v>
       </c>
       <c r="U10" t="n">
-        <v>517.5301661543458</v>
+        <v>517.5301661543413</v>
       </c>
       <c r="V10" t="n">
-        <v>517.5301661543458</v>
+        <v>517.5301661543413</v>
       </c>
       <c r="W10" t="n">
-        <v>517.5301661543458</v>
+        <v>517.5301661543413</v>
       </c>
       <c r="X10" t="n">
-        <v>517.5301661543458</v>
+        <v>517.5301661543413</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.5301661543458</v>
+        <v>517.5301661543413</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5123,19 +5123,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5263,34 +5263,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.1865537761979</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C16" t="n">
-        <v>781.250370848291</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2097.048807754114</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1807.973581098312</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1553.289092892425</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1263.871922855465</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5600,13 +5600,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.37805728168</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.96088724472</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5776,28 +5776,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5843,7 +5843,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>549.6145409888043</v>
+        <v>513.8536007400753</v>
       </c>
       <c r="C22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270484</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782998</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038384</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797786</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138452</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.502065570315</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6363,19 +6363,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6439,61 +6439,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,10 +6727,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7031,10 +7031,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7402,13 +7402,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,37 +7426,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,10 +7681,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7736,13 +7736,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.076938957246</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.475473980187</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.400247324385</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.715759118498</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.298589081537</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.30903818352</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>180.3309306186853</v>
       </c>
       <c r="L3" t="n">
         <v>127.8064787429921</v>
@@ -8069,16 +8069,16 @@
         <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>162.980370263109</v>
+        <v>168.9501955242219</v>
       </c>
       <c r="O3" t="n">
         <v>181.3015543884808</v>
       </c>
       <c r="P3" t="n">
-        <v>175.0047203318838</v>
+        <v>169.0348950707709</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1458149818875</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,19 +8221,19 @@
         <v>258.8041889468121</v>
       </c>
       <c r="L5" t="n">
-        <v>271.649412930509</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M5" t="n">
-        <v>264.5839477933977</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N5" t="n">
         <v>261.34821032935</v>
       </c>
       <c r="O5" t="n">
-        <v>214.5102874732696</v>
+        <v>264.993021668346</v>
       </c>
       <c r="P5" t="n">
-        <v>217.9290633046618</v>
+        <v>268.4117974997384</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236088</v>
+        <v>180.3309306186853</v>
       </c>
       <c r="L6" t="n">
-        <v>176.2495065059443</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
-        <v>129.5917403577182</v>
+        <v>174.1046492916817</v>
       </c>
       <c r="N6" t="n">
-        <v>168.9501955242219</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
         <v>181.3015543884808</v>
       </c>
       <c r="P6" t="n">
-        <v>175.0047203318838</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.663080786811</v>
+        <v>184.1458149818875</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>77.04016551526357</v>
+        <v>77.04016551526415</v>
       </c>
       <c r="K9" t="n">
-        <v>52.72964624369611</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.2470846107578</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>225.3762122884117</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.9958004224551</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392193818</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393068</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>66.34424953498198</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051419</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="F2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>336040.0192047127</v>
+        <v>336040.0192047092</v>
       </c>
       <c r="E3" t="n">
-        <v>1097008.861672794</v>
+        <v>1097008.861672798</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573661</v>
+        <v>13208.50450573655</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.433380621725214e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>118865.0002484791</v>
+        <v>118865.0002484783</v>
       </c>
       <c r="M3" t="n">
-        <v>162623.6387090554</v>
+        <v>162623.6387090563</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>391239.9394557325</v>
       </c>
       <c r="C4" t="n">
-        <v>391239.9394557325</v>
+        <v>391239.9394557324</v>
       </c>
       <c r="D4" t="n">
-        <v>282433.8818102718</v>
+        <v>282433.8818102729</v>
       </c>
       <c r="E4" t="n">
         <v>7405.452923911831</v>
@@ -26435,19 +26435,19 @@
         <v>7405.452923911831</v>
       </c>
       <c r="H4" t="n">
-        <v>7405.452923911831</v>
+        <v>7405.45292391186</v>
       </c>
       <c r="I4" t="n">
-        <v>7405.452923911831</v>
+        <v>7405.452923911853</v>
       </c>
       <c r="J4" t="n">
         <v>7405.452923911831</v>
       </c>
       <c r="K4" t="n">
-        <v>7405.452923911831</v>
+        <v>7405.452923911886</v>
       </c>
       <c r="L4" t="n">
-        <v>7405.452923911831</v>
+        <v>7405.452923911875</v>
       </c>
       <c r="M4" t="n">
         <v>7405.452923911831</v>
@@ -26456,7 +26456,7 @@
         <v>7405.452923911831</v>
       </c>
       <c r="O4" t="n">
-        <v>7405.452923911831</v>
+        <v>7405.452923911873</v>
       </c>
       <c r="P4" t="n">
         <v>7405.452923911831</v>
@@ -26475,7 +26475,7 @@
         <v>37198.64198163266</v>
       </c>
       <c r="D5" t="n">
-        <v>70593.86306519818</v>
+        <v>70593.86306519792</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148248.8258982257</v>
+        <v>148248.8258982258</v>
       </c>
       <c r="C6" t="n">
         <v>187342.7459608473</v>
       </c>
       <c r="D6" t="n">
-        <v>-73286.43668197043</v>
+        <v>-73286.43668196708</v>
       </c>
       <c r="E6" t="n">
-        <v>-600524.2739074659</v>
+        <v>-600211.6325785482</v>
       </c>
       <c r="F6" t="n">
-        <v>496484.5877653285</v>
+        <v>496797.2290942495</v>
       </c>
       <c r="G6" t="n">
-        <v>496484.5877653285</v>
+        <v>496797.2290942497</v>
       </c>
       <c r="H6" t="n">
-        <v>496484.5877653283</v>
+        <v>496797.2290942495</v>
       </c>
       <c r="I6" t="n">
-        <v>496484.5877653283</v>
+        <v>496797.2290942497</v>
       </c>
       <c r="J6" t="n">
-        <v>483276.0832595919</v>
+        <v>483588.7245885134</v>
       </c>
       <c r="K6" t="n">
-        <v>496484.5877653286</v>
+        <v>496797.2290942497</v>
       </c>
       <c r="L6" t="n">
-        <v>377619.5875168493</v>
+        <v>377932.2288457711</v>
       </c>
       <c r="M6" t="n">
-        <v>333860.949056273</v>
+        <v>334173.5903851935</v>
       </c>
       <c r="N6" t="n">
-        <v>496484.5877653285</v>
+        <v>496797.2290942498</v>
       </c>
       <c r="O6" t="n">
-        <v>496484.5877653285</v>
+        <v>496797.2290942495</v>
       </c>
       <c r="P6" t="n">
-        <v>496484.5877653284</v>
+        <v>496797.2290942495</v>
       </c>
     </row>
   </sheetData>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.291725777156517e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.291725777156517e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678931</v>
       </c>
       <c r="D3" t="n">
-        <v>245.0457677010692</v>
+        <v>245.0457677010663</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="D4" t="n">
-        <v>520.1359429163631</v>
+        <v>520.1359429163597</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.291725777156517e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>222.0323850142799</v>
+        <v>222.0323850142769</v>
       </c>
       <c r="E3" t="n">
-        <v>1122.929732640604</v>
+        <v>1122.929732640607</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>469.6532087212866</v>
+        <v>469.6532087212832</v>
       </c>
       <c r="E4" t="n">
-        <v>652.5723451832853</v>
+        <v>652.5723451832887</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507655</v>
+        <v>50.48273419507632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>469.6532087212866</v>
+        <v>469.6532087212832</v>
       </c>
       <c r="M4" t="n">
-        <v>652.5723451832853</v>
+        <v>652.5723451832889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.291725777156517e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>469.6532087212866</v>
+        <v>469.6532087212832</v>
       </c>
       <c r="M4" t="n">
-        <v>652.5723451832853</v>
+        <v>652.5723451832887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>314.790157575931</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>304.2003074256064</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>363.6485449916333</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>188.6273371087425</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>93.57486856939362</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>172.208126091823</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>122.2257647932392</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>107.1623462603244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>100.6040201143605</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>61.27463958220945</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>37.2096056932131</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>52.61926974801418</v>
       </c>
       <c r="S3" t="n">
-        <v>120.2809871382089</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -27517,7 +27517,7 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>182.3178529543487</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>158.8599545768826</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>98.13273882313581</v>
+        <v>140.2286064964671</v>
       </c>
       <c r="E4" t="n">
         <v>95.95122845149263</v>
@@ -27551,7 +27551,7 @@
         <v>94.9383138278547</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>117.4667456208323</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>314.790157575931</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>363.6485449916333</v>
+        <v>331.4476358771852</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>381.7181749193716</v>
       </c>
       <c r="H5" t="n">
         <v>338.5273214908784</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.0679913708439</v>
+        <v>116.0504494547908</v>
       </c>
       <c r="C6" t="n">
         <v>122.2257647932392</v>
       </c>
       <c r="D6" t="n">
-        <v>96.96233136956221</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>107.1623462603244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>92.82882440067223</v>
       </c>
       <c r="H6" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>37.20960569321311</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>158.8599545768826</v>
+        <v>116.7640869035513</v>
       </c>
       <c r="D7" t="n">
-        <v>98.13273882313581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>95.95122845149263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>94.9383138278547</v>
+        <v>103.9994468248256</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9494798159088</v>
+        <v>117.4667456208323</v>
       </c>
       <c r="H7" t="n">
         <v>161.8582038473137</v>
@@ -27800,7 +27800,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>181.5296380246645</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.3860585239337</v>
+        <v>329.3860585239338</v>
       </c>
       <c r="I8" t="n">
-        <v>32.83695908407819</v>
+        <v>172.4974897340427</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>87.98828897490932</v>
+        <v>87.98828897491006</v>
       </c>
       <c r="S8" t="n">
-        <v>186.5719070475997</v>
+        <v>186.5719070475999</v>
       </c>
       <c r="T8" t="n">
         <v>218.7835366068995</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27952,7 +27952,7 @@
         <v>107.1449651753856</v>
       </c>
       <c r="I9" t="n">
-        <v>71.24937552638306</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>67.43266540192297</v>
+        <v>67.43266540192337</v>
       </c>
       <c r="S9" t="n">
-        <v>161.8928991584225</v>
+        <v>161.8928991584226</v>
       </c>
       <c r="T9" t="n">
         <v>198.0402281239039</v>
       </c>
       <c r="U9" t="n">
-        <v>29.53186845340471</v>
+        <v>100.7812439798013</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.9681391315203</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>24.53417648495538</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>158.2984059367569</v>
       </c>
       <c r="I10" t="n">
-        <v>142.1617634591413</v>
+        <v>142.1617634591414</v>
       </c>
       <c r="J10" t="n">
-        <v>62.11785330665286</v>
+        <v>62.11785330665323</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.16013232883294</v>
+        <v>49.16013232883338</v>
       </c>
       <c r="R10" t="n">
-        <v>157.4245984747189</v>
+        <v>157.4245984747191</v>
       </c>
       <c r="S10" t="n">
-        <v>216.3157335011862</v>
+        <v>216.3157335011863</v>
       </c>
       <c r="T10" t="n">
         <v>226.0575318738634</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.200820559156155e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>9.433170125267642e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31278,28 +31278,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367556</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887676</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034957</v>
+        <v>3.566727381034955</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760341</v>
       </c>
       <c r="K5" t="n">
         <v>11.76839629324493</v>
       </c>
       <c r="L5" t="n">
-        <v>14.5997362345548</v>
+        <v>14.59973623455479</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895154</v>
+        <v>16.24501962895153</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019311</v>
+        <v>16.5078810301931</v>
       </c>
       <c r="O5" t="n">
         <v>15.58792394841718</v>
@@ -31308,19 +31308,19 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544801</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679515</v>
       </c>
       <c r="S5" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.40498927723184</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294043</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,25 +31357,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.04950048351498079</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.4780704592104724</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125436</v>
+        <v>1.704292963125435</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246497</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750209</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688213</v>
+        <v>10.74790103688212</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430018</v>
+        <v>12.54229356430017</v>
       </c>
       <c r="N6" t="n">
         <v>12.87425075418792</v>
@@ -31384,22 +31384,22 @@
         <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277522955</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210531</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605564</v>
+        <v>3.073372125605563</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523837</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.1995216857467865</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564527</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994793</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.368968660125901</v>
       </c>
       <c r="I7" t="n">
         <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>2.93401765828132</v>
+        <v>2.934017658281319</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166679</v>
+        <v>4.821492307166677</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471352</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988656</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847946</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150825</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131883</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705186</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473114</v>
+        <v>1.865970340473113</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750016</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U7" t="n">
         <v>0.002263611411815345</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9851086138736442</v>
+        <v>0.9851086138736325</v>
       </c>
       <c r="H8" t="n">
-        <v>10.08874359183346</v>
+        <v>10.08874359183334</v>
       </c>
       <c r="I8" t="n">
-        <v>37.97839983636371</v>
+        <v>37.97839983636325</v>
       </c>
       <c r="J8" t="n">
-        <v>83.60986221675829</v>
+        <v>83.60986221675729</v>
       </c>
       <c r="K8" t="n">
-        <v>125.3095098420297</v>
+        <v>125.3095098420282</v>
       </c>
       <c r="L8" t="n">
-        <v>155.4575275838652</v>
+        <v>155.4575275838634</v>
       </c>
       <c r="M8" t="n">
-        <v>172.9764528958407</v>
+        <v>172.9764528958386</v>
       </c>
       <c r="N8" t="n">
-        <v>175.7753927450092</v>
+        <v>175.7753927450071</v>
       </c>
       <c r="O8" t="n">
-        <v>165.9797189658031</v>
+        <v>165.9797189658011</v>
       </c>
       <c r="P8" t="n">
-        <v>141.6598500607975</v>
+        <v>141.6598500607958</v>
       </c>
       <c r="Q8" t="n">
-        <v>106.3806478264476</v>
+        <v>106.3806478264463</v>
       </c>
       <c r="R8" t="n">
-        <v>61.88082896624036</v>
+        <v>61.88082896623962</v>
       </c>
       <c r="S8" t="n">
-        <v>22.44816253864569</v>
+        <v>22.44816253864542</v>
       </c>
       <c r="T8" t="n">
-        <v>4.31231295723188</v>
+        <v>4.312312957231828</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07880868910989153</v>
+        <v>0.07880868910989058</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.527079575809847</v>
+        <v>0.5270795758098407</v>
       </c>
       <c r="H9" t="n">
-        <v>5.090479061110891</v>
+        <v>5.09047906111083</v>
       </c>
       <c r="I9" t="n">
-        <v>18.14725732503202</v>
+        <v>18.1472573250318</v>
       </c>
       <c r="J9" t="n">
-        <v>49.79746115140313</v>
+        <v>49.79746115140254</v>
       </c>
       <c r="K9" t="n">
-        <v>85.11179273066288</v>
+        <v>85.11179273066186</v>
       </c>
       <c r="L9" t="n">
-        <v>114.4433087739758</v>
+        <v>114.4433087739744</v>
       </c>
       <c r="M9" t="n">
-        <v>133.5499433970827</v>
+        <v>133.5499433970811</v>
       </c>
       <c r="N9" t="n">
-        <v>137.0846130085444</v>
+        <v>137.0846130085427</v>
       </c>
       <c r="O9" t="n">
-        <v>125.4056392498104</v>
+        <v>125.4056392498089</v>
       </c>
       <c r="P9" t="n">
-        <v>100.649081454426</v>
+        <v>100.6490814544248</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.28124550162187</v>
+        <v>67.28124550162107</v>
       </c>
       <c r="R9" t="n">
-        <v>32.72516875072016</v>
+        <v>32.72516875071977</v>
       </c>
       <c r="S9" t="n">
-        <v>9.790271945415352</v>
+        <v>9.790271945415236</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12450057091776</v>
+        <v>2.124500570917734</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03467628788222678</v>
+        <v>0.03467628788222638</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4418858106084854</v>
+        <v>0.4418858106084801</v>
       </c>
       <c r="H10" t="n">
-        <v>3.928766570682718</v>
+        <v>3.928766570682671</v>
       </c>
       <c r="I10" t="n">
-        <v>13.288711468117</v>
+        <v>13.28871146811684</v>
       </c>
       <c r="J10" t="n">
-        <v>31.24132681001991</v>
+        <v>31.24132681001954</v>
       </c>
       <c r="K10" t="n">
-        <v>51.33909690524038</v>
+        <v>51.33909690523977</v>
       </c>
       <c r="L10" t="n">
-        <v>65.69636860628337</v>
+        <v>65.69636860628259</v>
       </c>
       <c r="M10" t="n">
-        <v>69.26760938474648</v>
+        <v>69.26760938474565</v>
       </c>
       <c r="N10" t="n">
-        <v>67.62058045429673</v>
+        <v>67.62058045429592</v>
       </c>
       <c r="O10" t="n">
-        <v>62.45855075764303</v>
+        <v>62.45855075764229</v>
       </c>
       <c r="P10" t="n">
-        <v>53.44408022122988</v>
+        <v>53.44408022122924</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.00191092286145</v>
+        <v>37.00191092286101</v>
       </c>
       <c r="R10" t="n">
-        <v>19.86879290245062</v>
+        <v>19.86879290245038</v>
       </c>
       <c r="S10" t="n">
-        <v>7.700864535786057</v>
+        <v>7.700864535785964</v>
       </c>
       <c r="T10" t="n">
-        <v>1.888057554418073</v>
+        <v>1.888057554418051</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0241028623968265</v>
+        <v>0.02410286239682622</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34780,7 +34780,7 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>44.51290893396359</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="P3" t="n">
-        <v>50.48273419507654</v>
+        <v>44.51290893396361</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>50.48273419507654</v>
       </c>
       <c r="L5" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>48.44302776295223</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988641</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="L6" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.51290893396359</v>
       </c>
       <c r="N6" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35102,7 +35102,7 @@
         <v>33.75987543178749</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082925</v>
+        <v>46.08911889082924</v>
       </c>
       <c r="N7" t="n">
         <v>50.48273419507654</v>
@@ -35111,7 +35111,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025371</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>71.66057286214577</v>
+        <v>71.66057286214478</v>
       </c>
       <c r="K8" t="n">
-        <v>229.3650713682139</v>
+        <v>229.3650713682124</v>
       </c>
       <c r="L8" t="n">
-        <v>337.3523271643285</v>
+        <v>337.3523271643266</v>
       </c>
       <c r="M8" t="n">
-        <v>392.1437531614004</v>
+        <v>392.1437531613984</v>
       </c>
       <c r="N8" t="n">
-        <v>383.7092535604024</v>
+        <v>383.7092535604003</v>
       </c>
       <c r="O8" t="n">
-        <v>316.6816888068618</v>
+        <v>316.6816888068597</v>
       </c>
       <c r="P8" t="n">
-        <v>232.2255624770106</v>
+        <v>232.2255624770089</v>
       </c>
       <c r="Q8" t="n">
-        <v>96.38994861190277</v>
+        <v>96.3899486119015</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.7355907688815</v>
       </c>
       <c r="L9" t="n">
-        <v>318.1360136048594</v>
+        <v>346.7292742975594</v>
       </c>
       <c r="M9" t="n">
-        <v>457.1209732250643</v>
+        <v>216.7921217634745</v>
       </c>
       <c r="N9" t="n">
-        <v>485.0852752687646</v>
+        <v>485.085275268763</v>
       </c>
       <c r="O9" t="n">
-        <v>376.6717140820955</v>
+        <v>376.671714082094</v>
       </c>
       <c r="P9" t="n">
-        <v>285.1374426800329</v>
+        <v>285.1374426800317</v>
       </c>
       <c r="Q9" t="n">
-        <v>137.3767591514494</v>
+        <v>137.3767591514487</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>29.06960507935753</v>
+        <v>29.06960507935692</v>
       </c>
       <c r="L10" t="n">
-        <v>93.28639386659951</v>
+        <v>93.28639386659873</v>
       </c>
       <c r="M10" t="n">
-        <v>108.8514863465871</v>
+        <v>108.8514863465862</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7527528335253</v>
+        <v>111.7527528335245</v>
       </c>
       <c r="O10" t="n">
-        <v>87.0436786716827</v>
+        <v>87.04367867168196</v>
       </c>
       <c r="P10" t="n">
-        <v>50.72263948612337</v>
+        <v>50.72263948612273</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295751</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36378,10 +36378,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
